--- a/2. 연구사업(2023년)/4. 실험계획/표준물질_검량선 작성 범위(혼합음료, 먹는샘물).xlsx
+++ b/2. 연구사업(2023년)/4. 실험계획/표준물질_검량선 작성 범위(혼합음료, 먹는샘물).xlsx
@@ -85,7 +85,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,7 +102,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -111,7 +110,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -127,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -135,32 +160,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -446,285 +489,287 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="38.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9" style="4"/>
+    <col min="1" max="1" width="16.625" style="1"/>
+    <col min="2" max="2" width="16.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="3">
+    <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4">
         <v>100</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>500</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>100</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>100</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>0.1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <f>$C$2*$B3/$B$2</f>
         <v>0.5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <f>$D$2*$B3/$B$2</f>
         <v>0.1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <f>$E$2*$B3/$B$2</f>
         <v>0.1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <f>$F$2*$B3/$B$2</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>0.2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <f t="shared" ref="C4:C12" si="0">$C$2*$B4/$B$2</f>
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <f t="shared" ref="D4:D12" si="1">$D$2*$B4/$B$2</f>
         <v>0.2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <f t="shared" ref="E4:E12" si="2">$E$2*$B4/$B$2</f>
         <v>0.2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <f t="shared" ref="F4:F12" si="3">$F$2*$B4/$B$2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>0.4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>0.8</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="7">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="7">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>4</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="7">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>8</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="7">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="7">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>

--- a/2. 연구사업(2023년)/4. 실험계획/표준물질_검량선 작성 범위(혼합음료, 먹는샘물).xlsx
+++ b/2. 연구사업(2023년)/4. 실험계획/표준물질_검량선 작성 범위(혼합음료, 먹는샘물).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Ca</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,38 @@
   </si>
   <si>
     <t>mL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500mg/L Si 표준용액: SiO2 용액(1,000mg/L) 25mL 분취하여 50mL 부피플라스크에 표선까지 맞춘다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질산 0.1mL 투입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양이온 표준 원액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SiO2 표준 원액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분취량/100mL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검량선 표준물질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100mL 부피플라스크 10개에 0.1mL ~ 10mL 씩 나눠 분취한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,10 +114,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="General\ &quot;mg/L&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,22 +146,13 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -136,7 +160,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -144,15 +168,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -175,13 +205,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -191,20 +258,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,297 +577,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="38.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="1"/>
-    <col min="2" max="2" width="16.625" style="2"/>
+    <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="2" customWidth="1"/>
+    <col min="3" max="7" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4">
+      <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="8">
         <v>100</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C3" s="9">
         <v>500</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D3" s="9">
         <v>100</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="9">
         <v>100</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F3" s="9">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="G3" s="10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B4" s="15">
         <v>0.1</v>
       </c>
-      <c r="C3" s="7">
-        <f>$C$2*$B3/$B$2</f>
+      <c r="C4" s="7">
+        <f>$C$3*$B4/$B$3</f>
         <v>0.5</v>
       </c>
-      <c r="D3" s="7">
-        <f>$D$2*$B3/$B$2</f>
+      <c r="D4" s="7">
+        <f>$D$3*$B4/$B$3</f>
         <v>0.1</v>
       </c>
-      <c r="E3" s="7">
-        <f>$E$2*$B3/$B$2</f>
+      <c r="E4" s="7">
+        <f>$E$3*$B4/$B$3</f>
         <v>0.1</v>
       </c>
-      <c r="F3" s="7">
-        <f>$F$2*$B3/$B$2</f>
+      <c r="F4" s="7">
+        <f>$F$3*$B4/$B$3</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="G4" s="7">
+        <f>$G$3*$B4/$B$3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B5" s="15">
         <v>0.2</v>
       </c>
-      <c r="C4" s="7">
-        <f t="shared" ref="C4:C12" si="0">$C$2*$B4/$B$2</f>
+      <c r="C5" s="7">
+        <f t="shared" ref="C5:C13" si="0">$C$3*$B5/$B$3</f>
         <v>1</v>
       </c>
-      <c r="D4" s="7">
-        <f t="shared" ref="D4:D12" si="1">$D$2*$B4/$B$2</f>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:D13" si="1">$D$3*$B5/$B$3</f>
         <v>0.2</v>
       </c>
-      <c r="E4" s="7">
-        <f t="shared" ref="E4:E12" si="2">$E$2*$B4/$B$2</f>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E13" si="2">$E$3*$B5/$B$3</f>
         <v>0.2</v>
       </c>
-      <c r="F4" s="7">
-        <f t="shared" ref="F4:F12" si="3">$F$2*$B4/$B$2</f>
+      <c r="F5" s="7">
+        <f>$F$3*$B5/$B$3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G13" si="3">$G$3*$B5/$B$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="15">
         <v>0.4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="7">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E6" s="7">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F6" s="7">
+        <f>$F$3*$B6/$B$3</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="15">
         <v>0.8</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="7">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="7">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="7">
+        <f>$F$3*$B7/$B$3</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B8" s="15">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F8" s="7">
+        <f>$F$3*$B8/$B$3</f>
+        <v>5</v>
+      </c>
+      <c r="G8" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B9" s="15">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
+        <f>$F$3*$B9/$B$3</f>
+        <v>10</v>
+      </c>
+      <c r="G9" s="7">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B10" s="15">
         <v>3</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="7">
+        <f>$F$3*$B10/$B$3</f>
+        <v>15</v>
+      </c>
+      <c r="G10" s="7">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B11" s="15">
         <v>4</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="7">
+        <f>$F$3*$B11/$B$3</f>
+        <v>20</v>
+      </c>
+      <c r="G11" s="7">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B12" s="15">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="7">
+        <f>$F$3*$B12/$B$3</f>
+        <v>40</v>
+      </c>
+      <c r="G12" s="7">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B13" s="15">
         <v>10</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="7">
+        <f>$F$3*$B13/$B$3</f>
+        <v>50</v>
+      </c>
+      <c r="G13" s="7">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
+    <row r="14" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:A3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>